--- a/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SYBC_sum_stat.xlsx
+++ b/Simulation/Nordnet/simulated_prices/10 year simulation GBM/Yearly Data/SYBC_sum_stat.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,262 +482,291 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-9.024115319579995e-05</v>
+        <v>-6.998645681759398e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0001600640162545686</v>
+        <v>-9.087333388352326e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002989366932425328</v>
+        <v>0.002866449218421659</v>
       </c>
       <c r="D2" t="n">
-        <v>8.936314656678013e-06</v>
+        <v>8.216531121790143e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.008203040719917842</v>
+        <v>-0.00937994543886167</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.002226014672912446</v>
+        <v>-0.001948955001194491</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0001600640162545686</v>
+        <v>-9.087333388352326e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001939571822584085</v>
+        <v>0.001956027640578062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01058653693886824</v>
+        <v>0.009409583926891507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.060207176568744e-05</v>
+        <v>-9.024115319579995e-05</v>
       </c>
       <c r="B3" t="n">
-        <v>0.000127950418444045</v>
+        <v>-0.0001600640162545686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002980503066804065</v>
+        <v>0.002989366932425328</v>
       </c>
       <c r="D3" t="n">
-        <v>8.883398531228434e-06</v>
+        <v>8.936314656678013e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.008215568974786036</v>
+        <v>-0.008203040719917842</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.001983450923643604</v>
+        <v>-0.002226014672912446</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000127950418444045</v>
+        <v>-0.0001600640162545686</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002098634474848593</v>
+        <v>0.001939571822584085</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01038337832722203</v>
+        <v>0.01058653693886824</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-9.53945982917731e-05</v>
+        <v>7.060207176568744e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0002400298533111744</v>
+        <v>0.000127950418444045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003179846278398602</v>
+        <v>0.002980503066804065</v>
       </c>
       <c r="D4" t="n">
-        <v>1.011142235424544e-05</v>
+        <v>8.883398531228436e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01020082843064696</v>
+        <v>-0.008215568974786036</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002183015782069281</v>
+        <v>-0.001983450923643604</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0002400298533111744</v>
+        <v>0.000127950418444045</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002047910745925974</v>
+        <v>0.002098634474848593</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009494255704863841</v>
+        <v>0.01038337832722203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0003233416164533436</v>
+        <v>-9.53945982917731e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0003261670921895221</v>
+        <v>-0.0002400298533111744</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002955441625213827</v>
+        <v>0.003179846278398602</v>
       </c>
       <c r="D5" t="n">
-        <v>8.734635200046546e-06</v>
+        <v>1.011142235424544e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.009576578158028592</v>
+        <v>-0.01020082843064696</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002550838404205503</v>
+        <v>-0.002183015782069281</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0003261670921895221</v>
+        <v>-0.0002400298533111744</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001586074719593656</v>
+        <v>0.002047910745925974</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009303768671223622</v>
+        <v>0.009494255704863841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0001124607073101678</v>
+        <v>-0.0003233416164533436</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0001723185895208257</v>
+        <v>-0.0003261670921895221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003046065085477515</v>
+        <v>0.002955441625213827</v>
       </c>
       <c r="D6" t="n">
-        <v>9.278512504965141e-06</v>
+        <v>8.734635200046546e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01075587917967569</v>
+        <v>-0.009576578158028592</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002139401246348482</v>
+        <v>-0.002550838404205503</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0001723185895208257</v>
+        <v>-0.0003261670921895221</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001967320407265216</v>
+        <v>0.001586074719593656</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01014153597930201</v>
+        <v>0.009303768671223622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.573444272739079e-06</v>
+        <v>-0.0001124607073101678</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0001133972820905882</v>
+        <v>-0.0001723185895208257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003084529599533633</v>
+        <v>0.003046065085477515</v>
       </c>
       <c r="D7" t="n">
-        <v>9.514322850399114e-06</v>
+        <v>9.278512504965141e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.009854082272077846</v>
+        <v>-0.01075587917967569</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002049580044763244</v>
+        <v>-0.002139401246348482</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0001133972820905882</v>
+        <v>-0.0001723185895208257</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002032988808891745</v>
+        <v>0.001967320407265216</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01113077387340589</v>
+        <v>0.01014153597930201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0001955247368500693</v>
+        <v>-6.573444272739079e-06</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.000157105247401923</v>
+        <v>-0.0001133972820905882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002962651309474826</v>
+        <v>0.003084529599533633</v>
       </c>
       <c r="D8" t="n">
-        <v>8.777302781532901e-06</v>
+        <v>9.514322850399115e-06</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008958000996851956</v>
+        <v>-0.009854082272077846</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002337741811300087</v>
+        <v>-0.002049580044763244</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.000157105247401923</v>
+        <v>-0.0001133972820905882</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001822044133570289</v>
+        <v>0.002032988808891745</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009506713887236673</v>
+        <v>0.01113077387340589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.0001210118924882928</v>
+        <v>-0.0001955247368500693</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.95726312796074e-05</v>
+        <v>-0.000157105247401923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002928642818561062</v>
+        <v>0.002962651309474826</v>
       </c>
       <c r="D9" t="n">
-        <v>8.57694875870928e-06</v>
+        <v>8.777302781532899e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.00891332015560331</v>
+        <v>-0.008958000996851956</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002093703330848878</v>
+        <v>-0.002337741811300087</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.95726312796074e-05</v>
+        <v>-0.000157105247401923</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001805557861369766</v>
+        <v>0.001822044133570289</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01013221378056839</v>
+        <v>0.009506713887236673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>-0.0001210118924882928</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.95726312796074e-05</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002928642818561062</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.576948758709282e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.00891332015560331</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.002093703330848878</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.95726312796074e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001805557861369766</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01013221378056839</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>-2.654097454623238e-05</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11" t="n">
         <v>-0.00016132504022498</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>0.002968732920295071</v>
       </c>
-      <c r="D10" t="n">
-        <v>8.813375152043699e-06</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D11" t="n">
+        <v>8.813375152043701e-06</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.009934346831125374</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>-0.00186929111716963</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>-0.00016132504022498</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>0.001878926778434098</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>0.01027159657847077</v>
       </c>
     </row>
